--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>nombre</t>
   </si>
@@ -28,21 +28,9 @@
     <t>curp</t>
   </si>
   <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
     <t>registroescolar</t>
   </si>
   <si>
-    <t>idescuela</t>
-  </si>
-  <si>
     <t>Nora Alejandra</t>
   </si>
   <si>
@@ -52,13 +40,7 @@
     <t>Green</t>
   </si>
   <si>
-    <t>COEC121224SSSLRR23</t>
-  </si>
-  <si>
-    <t>prueba1</t>
-  </si>
-  <si>
-    <t>nora_sis@hotmail.com</t>
+    <t>COEC121224CCCLRR23</t>
   </si>
   <si>
     <t>Alejandra</t>
@@ -67,19 +49,13 @@
     <t>Rojas</t>
   </si>
   <si>
-    <t>COEC221229SSSLRR11</t>
-  </si>
-  <si>
-    <t>ale@hotmail.com</t>
+    <t>COEC221229CCCLRR11</t>
   </si>
   <si>
     <t>Paola</t>
   </si>
   <si>
-    <t>COEC321224SSSRR19</t>
-  </si>
-  <si>
-    <t>paola@hotmail.com</t>
+    <t>COEC321224CCCRR19</t>
   </si>
 </sst>
 </file>
@@ -88,11 +64,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,69 +77,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,16 +177,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,14 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +209,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +444,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,36 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -553,16 +510,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,134 +545,132 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,23 +990,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="22.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="24.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="16.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,112 +1021,59 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2">
+        <v>784748</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3">
+        <v>7412874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>125485</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>784748</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>125485</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>7412874</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>125485</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
+      <c r="E4">
         <v>749685</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="nora_sis@hotmail.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="ale@hotmail.com" tooltip="mailto:ale@hotmail.com"/>
-    <hyperlink ref="G4" r:id="rId3" display="paola@hotmail.com" tooltip="mailto:paola@hotmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
